--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AR2_50_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,18 +417,18 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="B2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D2">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="B3">
         <v>2008</v>
@@ -436,27 +436,21 @@
       <c r="D3">
         <v>2009</v>
       </c>
-      <c r="E3">
-        <v>3.054599347420139</v>
-      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="B4">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="D4">
-        <v>2009</v>
-      </c>
-      <c r="E4">
-        <v>-2.824221650093883</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="B5">
         <v>2009</v>
@@ -467,30 +461,21 @@
       <c r="D5">
         <v>2010</v>
       </c>
-      <c r="E5">
-        <v>0.6832201941375571</v>
-      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="B6">
-        <v>2009</v>
-      </c>
-      <c r="C6">
-        <v>-3.872359107260159</v>
+        <v>2010</v>
       </c>
       <c r="D6">
-        <v>2010</v>
-      </c>
-      <c r="E6">
-        <v>4.063186607895775</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="B7">
         <v>2010</v>
@@ -501,30 +486,21 @@
       <c r="D7">
         <v>2011</v>
       </c>
-      <c r="E7">
-        <v>6.198184853554634</v>
-      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="B8">
-        <v>2010</v>
-      </c>
-      <c r="C8">
-        <v>4.530477057343663</v>
+        <v>2011</v>
       </c>
       <c r="D8">
-        <v>2011</v>
-      </c>
-      <c r="E8">
-        <v>6.404323597907235</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="B9">
         <v>2011</v>
@@ -535,30 +511,21 @@
       <c r="D9">
         <v>2012</v>
       </c>
-      <c r="E9">
-        <v>6.977693666529272</v>
-      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="B10">
-        <v>2011</v>
-      </c>
-      <c r="C10">
-        <v>6.833902841285977</v>
+        <v>2012</v>
       </c>
       <c r="D10">
-        <v>2012</v>
-      </c>
-      <c r="E10">
-        <v>4.379018979318605</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="B11">
         <v>2012</v>
@@ -570,29 +537,29 @@
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>4.580469755461802</v>
+        <v>2.693188401769642</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="B12">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C12">
-        <v>4.166536506645224</v>
+        <v>1.785377844167058</v>
       </c>
       <c r="D12">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E12">
-        <v>2.313339498391165</v>
+        <v>2.333075171696652</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="B13">
         <v>2013</v>
@@ -604,29 +571,29 @@
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>5.800035788110924</v>
+        <v>3.947916604971446</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="B14">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C14">
-        <v>2.669880057548091</v>
+        <v>5.477304442308206</v>
       </c>
       <c r="D14">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E14">
-        <v>5.973609545413994</v>
+        <v>4.052456259163839</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="B15">
         <v>2014</v>
@@ -638,29 +605,29 @@
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>6.575740619085968</v>
+        <v>4.998814576944932</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="B16">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C16">
-        <v>5.50293301232252</v>
+        <v>4.666532690711245</v>
       </c>
       <c r="D16">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E16">
-        <v>5.107401516566701</v>
+        <v>3.659383764712709</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="B17">
         <v>2015</v>
@@ -672,29 +639,29 @@
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>5.637047132432382</v>
+        <v>4.673582741620552</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="B18">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C18">
-        <v>4.829481320500406</v>
+        <v>5.266214435142658</v>
       </c>
       <c r="D18">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E18">
-        <v>5.448849700771508</v>
+        <v>4.181342739750682</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="B19">
         <v>2016</v>
@@ -706,29 +673,29 @@
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>4.889825623401545</v>
+        <v>4.372458986620376</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="B20">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C20">
-        <v>5.100281927437122</v>
+        <v>4.811826107786477</v>
       </c>
       <c r="D20">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E20">
-        <v>4.890921874850185</v>
+        <v>4.131858242365549</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="B21">
         <v>2017</v>
@@ -740,63 +707,63 @@
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>5.261684900217256</v>
+        <v>4.927320050172312</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="B22">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C22">
-        <v>5.161358932333737</v>
+        <v>6.022380124455107</v>
       </c>
       <c r="D22">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E22">
-        <v>5.938036641950228</v>
+        <v>4.474956658559948</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>5.910776580333765</v>
+        <v>5.91185619417105</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>4.737510621186813</v>
+        <v>4.365509285986957</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>5.903240711112856</v>
+        <v>5.904095356703798</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>4.751894620017949</v>
+        <v>4.348199743880454</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="B25">
         <v>2018</v>
@@ -808,63 +775,63 @@
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>4.808207293463118</v>
+        <v>4.339089271348406</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="B26">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C26">
-        <v>5.902681694119694</v>
+        <v>3.109393707322261</v>
       </c>
       <c r="D26">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E26">
-        <v>3.844372712434674</v>
+        <v>3.558392386986431</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>4.754217134270533</v>
+        <v>5.114185474093769</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>4.502492156165561</v>
+        <v>5.472991335528654</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>3.937486382457855</v>
+        <v>3.799522169175473</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>3.718398465425499</v>
+        <v>2.778402897289434</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="B29">
         <v>2019</v>
@@ -876,63 +843,63 @@
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>3.575675711572068</v>
+        <v>3.243024666552685</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="B30">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C30">
-        <v>3.884502719230132</v>
+        <v>3.662599762249985</v>
       </c>
       <c r="D30">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E30">
-        <v>3.666264665660224</v>
+        <v>3.993000457359908</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>2.026619269503116</v>
+        <v>2.167530781895133</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>4.521126324859415</v>
+        <v>2.573593955528963</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-4.007669511185885</v>
+        <v>-3.840397826549158</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>4.894792862113562</v>
+        <v>-5.097705497973837</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="B33">
         <v>2020</v>
@@ -944,63 +911,63 @@
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>4.713777840658673</v>
+        <v>0.2915162802050064</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="B34">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C34">
-        <v>-3.840397826549158</v>
+        <v>-0.1964516829170981</v>
       </c>
       <c r="D34">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E34">
-        <v>2.375052641466335</v>
+        <v>3.329288211255621</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>1.212304829517796</v>
+        <v>0.5766229317536675</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>9.298746984139195</v>
+        <v>4.059584075094214</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>1.488248808663228</v>
+        <v>0.4839811651348835</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>8.604279583650509</v>
+        <v>3.96063514023246</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="B37">
         <v>2021</v>
@@ -1012,63 +979,63 @@
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>6.8272105562736</v>
+        <v>3.818597641626909</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="B38">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C38">
-        <v>0.4839811651348835</v>
+        <v>2.256289400228262</v>
       </c>
       <c r="D38">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E38">
-        <v>4.93373128372403</v>
+        <v>3.516729866534796</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>2.236851357693292</v>
+        <v>2.288114387968587</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>3.947999343926734</v>
+        <v>3.463553906111505</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>2.395586567457175</v>
+        <v>2.06342951900429</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>3.99549438235165</v>
+        <v>3.020376488332777</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="B41">
         <v>2022</v>
@@ -1080,63 +1047,63 @@
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>1.963784470256713</v>
+        <v>0.6985632195332103</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="B42">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C42">
-        <v>2.06342951900429</v>
+        <v>-1.252226393550548</v>
       </c>
       <c r="D42">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E42">
-        <v>-0.2251249147054546</v>
+        <v>2.967032781824974</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-1.499586570365474</v>
+        <v>-2.013802094285932</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>4.436084942495122</v>
+        <v>2.374210810973465</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-2.158581765635204</v>
+        <v>-2.156362896191677</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>3.750193614401542</v>
+        <v>2.034789645219792</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="B45">
         <v>2023</v>
@@ -1148,63 +1115,63 @@
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>2.091147464428778</v>
+        <v>0.3452735157291054</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="B46">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C46">
-        <v>-2.156362896191677</v>
+        <v>-0.4399034310282546</v>
       </c>
       <c r="D46">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E46">
-        <v>0.4555597068876871</v>
+        <v>2.563033601911258</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-0.6569152576540782</v>
+        <v>-0.5865622195987186</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>3.809034848488446</v>
+        <v>2.431929210693595</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-0.4507701807948239</v>
+        <v>-0.8205034771073372</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>3.710266040086396</v>
+        <v>1.969879323458756</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="B49">
         <v>2024</v>
@@ -1216,75 +1183,58 @@
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>1.76827631783818</v>
+        <v>1.5902148106679</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="B50">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C50">
-        <v>-0.8205034771073372</v>
+        <v>1.06642809951869</v>
       </c>
       <c r="D50">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="E50">
-        <v>1.268511207459633</v>
+        <v>2.36642828939615</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.468579753809073</v>
+        <v>0.7174582534189566</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>0.116859699208427</v>
+        <v>2.061048937680932</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45800</v>
+        <v>45891</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.5756371110930525</v>
+        <v>0.5750555200350504</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>0.5339625944420057</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="2">
-        <v>45891</v>
-      </c>
-      <c r="B53">
-        <v>2025</v>
-      </c>
-      <c r="C53">
-        <v>0.5750555200350504</v>
-      </c>
-      <c r="D53">
-        <v>2026</v>
-      </c>
-      <c r="E53">
-        <v>0.5328865284840001</v>
+        <v>1.743520202089877</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AR2_50_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,18 +417,21 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39583</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>7.226520411029069</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="D2">
-        <v>2009</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39765</v>
+        <v>39583</v>
       </c>
       <c r="B3">
         <v>2008</v>
@@ -439,802 +442,840 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39948</v>
+        <v>39765</v>
       </c>
       <c r="B4">
+        <v>2008</v>
+      </c>
+      <c r="C4">
+        <v>4.268860212333636</v>
+      </c>
+      <c r="D4">
         <v>2009</v>
-      </c>
-      <c r="D4">
-        <v>2010</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40130</v>
+        <v>39948</v>
       </c>
       <c r="B5">
         <v>2009</v>
       </c>
-      <c r="C5">
-        <v>-3.872359107260159</v>
-      </c>
       <c r="D5">
         <v>2010</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40310</v>
+        <v>40130</v>
       </c>
       <c r="B6">
+        <v>2009</v>
+      </c>
+      <c r="C6">
+        <v>-7.266312015249776</v>
+      </c>
+      <c r="D6">
         <v>2010</v>
-      </c>
-      <c r="D6">
-        <v>2011</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40494</v>
+        <v>40310</v>
       </c>
       <c r="B7">
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>4.530477057343663</v>
+        <v>3.184002331674129</v>
       </c>
       <c r="D7">
         <v>2011</v>
       </c>
+      <c r="E7">
+        <v>6.704254199558113</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40676</v>
+        <v>40494</v>
       </c>
       <c r="B8">
+        <v>2010</v>
+      </c>
+      <c r="C8">
+        <v>6.958243460951929</v>
+      </c>
+      <c r="D8">
         <v>2011</v>
       </c>
-      <c r="D8">
-        <v>2012</v>
+      <c r="E8">
+        <v>12.21658306395068</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40862</v>
+        <v>40676</v>
       </c>
       <c r="B9">
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>6.833902841285977</v>
+        <v>8.626810748872327</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
+      <c r="E9">
+        <v>4.739201070534826</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>41044</v>
+        <v>40862</v>
       </c>
       <c r="B10">
+        <v>2011</v>
+      </c>
+      <c r="C10">
+        <v>9.469137444079934</v>
+      </c>
+      <c r="D10">
         <v>2012</v>
       </c>
-      <c r="D10">
-        <v>2013</v>
+      <c r="E10">
+        <v>8.079264579851909</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41228</v>
+        <v>41044</v>
       </c>
       <c r="B11">
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>4.166536506645224</v>
+        <v>3.449685446853534</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>2.693188401769642</v>
+        <v>3.26507595662513</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41409</v>
+        <v>41228</v>
       </c>
       <c r="B12">
+        <v>2012</v>
+      </c>
+      <c r="C12">
+        <v>3.358206407534947</v>
+      </c>
+      <c r="D12">
         <v>2013</v>
       </c>
-      <c r="C12">
-        <v>1.785377844167058</v>
-      </c>
-      <c r="D12">
-        <v>2014</v>
-      </c>
       <c r="E12">
-        <v>2.333075171696652</v>
+        <v>4.701432377325987</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41592</v>
+        <v>41409</v>
       </c>
       <c r="B13">
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>2.669880057548091</v>
+        <v>-1.480934717826909</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>3.947916604971446</v>
+        <v>0.7772706050320544</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41774</v>
+        <v>41592</v>
       </c>
       <c r="B14">
+        <v>2013</v>
+      </c>
+      <c r="C14">
+        <v>0.3081076735359067</v>
+      </c>
+      <c r="D14">
         <v>2014</v>
       </c>
-      <c r="C14">
-        <v>5.477304442308206</v>
-      </c>
-      <c r="D14">
-        <v>2015</v>
-      </c>
       <c r="E14">
-        <v>4.052456259163839</v>
+        <v>3.972902167062387</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41957</v>
+        <v>41774</v>
       </c>
       <c r="B15">
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>5.50293301232252</v>
+        <v>5.427992542801308</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>4.998814576944932</v>
+        <v>4.945882057432871</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>42137</v>
+        <v>41957</v>
       </c>
       <c r="B16">
+        <v>2014</v>
+      </c>
+      <c r="C16">
+        <v>3.901355411819707</v>
+      </c>
+      <c r="D16">
         <v>2015</v>
       </c>
-      <c r="C16">
-        <v>4.666532690711245</v>
-      </c>
-      <c r="D16">
-        <v>2016</v>
-      </c>
       <c r="E16">
-        <v>3.659383764712709</v>
+        <v>4.658857392675264</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42321</v>
+        <v>42137</v>
       </c>
       <c r="B17">
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>4.829481320500406</v>
+        <v>4.970284184513551</v>
       </c>
       <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>4.673582741620552</v>
+        <v>4.488174889976171</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42503</v>
+        <v>42321</v>
       </c>
       <c r="B18">
+        <v>2015</v>
+      </c>
+      <c r="C18">
+        <v>5.331683351557981</v>
+      </c>
+      <c r="D18">
         <v>2016</v>
       </c>
-      <c r="C18">
-        <v>5.266214435142658</v>
-      </c>
-      <c r="D18">
-        <v>2017</v>
-      </c>
       <c r="E18">
-        <v>4.181342739750682</v>
+        <v>4.089819750351786</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42689</v>
+        <v>42503</v>
       </c>
       <c r="B19">
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>5.100281927437122</v>
+        <v>4.039484738713828</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>4.372458986620376</v>
+        <v>4.214976960249173</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42867</v>
+        <v>42689</v>
       </c>
       <c r="B20">
+        <v>2016</v>
+      </c>
+      <c r="C20">
+        <v>3.254758369308375</v>
+      </c>
+      <c r="D20">
         <v>2017</v>
       </c>
-      <c r="C20">
-        <v>4.811826107786477</v>
-      </c>
-      <c r="D20">
-        <v>2018</v>
-      </c>
       <c r="E20">
-        <v>4.131858242365549</v>
+        <v>2.313009565865753</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>43053</v>
+        <v>42867</v>
       </c>
       <c r="B21">
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>5.161358932333737</v>
+        <v>4.589070866863865</v>
       </c>
       <c r="D21">
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>4.927320050172312</v>
+        <v>3.829046580278361</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43145</v>
+        <v>43053</v>
       </c>
       <c r="B22">
+        <v>2017</v>
+      </c>
+      <c r="C22">
+        <v>5.246209615995667</v>
+      </c>
+      <c r="D22">
         <v>2018</v>
       </c>
-      <c r="C22">
-        <v>6.022380124455107</v>
-      </c>
-      <c r="D22">
-        <v>2019</v>
-      </c>
       <c r="E22">
-        <v>4.474956658559948</v>
+        <v>4.784022165496182</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43235</v>
+        <v>43145</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>5.91185619417105</v>
+        <v>6.011890504679696</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>4.365509285986957</v>
+        <v>4.234360353587641</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43326</v>
+        <v>43235</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>5.904095356703798</v>
+        <v>3.625873842174787</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>4.348199743880454</v>
+        <v>2.330842103296149</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43418</v>
+        <v>43326</v>
       </c>
       <c r="B25">
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>5.902681694119694</v>
+        <v>4.899902276557011</v>
       </c>
       <c r="D25">
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>4.339089271348406</v>
+        <v>3.75342745845737</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43510</v>
+        <v>43418</v>
       </c>
       <c r="B26">
+        <v>2018</v>
+      </c>
+      <c r="C26">
+        <v>4.86255966374296</v>
+      </c>
+      <c r="D26">
         <v>2019</v>
       </c>
-      <c r="C26">
-        <v>3.109393707322261</v>
-      </c>
-      <c r="D26">
-        <v>2020</v>
-      </c>
       <c r="E26">
-        <v>3.558392386986431</v>
+        <v>4.112897401876747</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43600</v>
+        <v>43510</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>5.114185474093769</v>
+        <v>3.660106318836931</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>5.472991335528654</v>
+        <v>3.270208315717005</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43691</v>
+        <v>43600</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>3.799522169175473</v>
+        <v>3.500574054404404</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>2.778402897289434</v>
+        <v>3.21661481720994</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43783</v>
+        <v>43691</v>
       </c>
       <c r="B29">
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>3.884502719230132</v>
+        <v>2.983312281417039</v>
       </c>
       <c r="D29">
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>3.243024666552685</v>
+        <v>2.428295356218069</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43875</v>
+        <v>43783</v>
       </c>
       <c r="B30">
+        <v>2019</v>
+      </c>
+      <c r="C30">
+        <v>2.764740011159428</v>
+      </c>
+      <c r="D30">
         <v>2020</v>
       </c>
-      <c r="C30">
-        <v>3.662599762249985</v>
-      </c>
-      <c r="D30">
-        <v>2021</v>
-      </c>
       <c r="E30">
-        <v>3.993000457359908</v>
+        <v>1.643374185611401</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43966</v>
+        <v>43875</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>2.167530781895133</v>
+        <v>2.096953540210977</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>2.573593955528963</v>
+        <v>3.169670668618951</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>44068</v>
+        <v>43966</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-3.840397826549158</v>
+        <v>-0.9913189363815245</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>-5.097705497973837</v>
+        <v>1.183532150252908</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44159</v>
+        <v>44068</v>
       </c>
       <c r="B33">
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-3.840397826549158</v>
+        <v>-7.578477024949737</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>0.2915162802050064</v>
+        <v>-5.743787238149123</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44251</v>
+        <v>44159</v>
       </c>
       <c r="B34">
+        <v>2020</v>
+      </c>
+      <c r="C34">
+        <v>-7.260793671746435</v>
+      </c>
+      <c r="D34">
         <v>2021</v>
       </c>
-      <c r="C34">
-        <v>-0.1964516829170981</v>
-      </c>
-      <c r="D34">
-        <v>2022</v>
-      </c>
       <c r="E34">
-        <v>3.329288211255621</v>
+        <v>0.00562230452727519</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44341</v>
+        <v>44251</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>0.5766229317536675</v>
+        <v>0.4989366167094333</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>4.059584075094214</v>
+        <v>2.690694906265412</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44432</v>
+        <v>44341</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>0.4839811651348835</v>
+        <v>4.507091823899212</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>3.96063514023246</v>
+        <v>5.429743376942153</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44525</v>
+        <v>44432</v>
       </c>
       <c r="B37">
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>0.4839811651348835</v>
+        <v>4.379227219808146</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>3.818597641626909</v>
+        <v>4.954652839642848</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44617</v>
+        <v>44525</v>
       </c>
       <c r="B38">
+        <v>2021</v>
+      </c>
+      <c r="C38">
+        <v>4.097586525396268</v>
+      </c>
+      <c r="D38">
         <v>2022</v>
       </c>
-      <c r="C38">
-        <v>2.256289400228262</v>
-      </c>
-      <c r="D38">
-        <v>2023</v>
-      </c>
       <c r="E38">
-        <v>3.516729866534796</v>
+        <v>3.9116372951149</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44706</v>
+        <v>44617</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>2.288114387968587</v>
+        <v>7.041577295022128</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>3.463553906111505</v>
+        <v>3.388682041315016</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44798</v>
+        <v>44706</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>2.06342951900429</v>
+        <v>8.053468068361846</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>3.020376488332777</v>
+        <v>3.974997080343634</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44890</v>
+        <v>44798</v>
       </c>
       <c r="B41">
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>2.06342951900429</v>
+        <v>7.397318165265498</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>0.6985632195332103</v>
+        <v>3.367096865515662</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44981</v>
+        <v>44890</v>
       </c>
       <c r="B42">
+        <v>2022</v>
+      </c>
+      <c r="C42">
+        <v>7.824284864703746</v>
+      </c>
+      <c r="D42">
         <v>2023</v>
       </c>
-      <c r="C42">
-        <v>-1.252226393550548</v>
-      </c>
-      <c r="D42">
-        <v>2024</v>
-      </c>
       <c r="E42">
-        <v>2.967032781824974</v>
+        <v>2.586378346096296</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45071</v>
+        <v>44981</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-2.013802094285932</v>
+        <v>0.9995490351194292</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>2.374210810973465</v>
+        <v>2.834404338648921</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45163</v>
+        <v>45071</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-2.156362896191677</v>
+        <v>0.2714278794373248</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>2.034789645219792</v>
+        <v>2.460471645027118</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45254</v>
+        <v>45163</v>
       </c>
       <c r="B45">
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-2.156362896191677</v>
+        <v>-0.3046246622258053</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>0.3452735157291054</v>
+        <v>1.976476469605681</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45345</v>
+        <v>45254</v>
       </c>
       <c r="B46">
+        <v>2023</v>
+      </c>
+      <c r="C46">
+        <v>-1.24502235313334</v>
+      </c>
+      <c r="D46">
         <v>2024</v>
       </c>
-      <c r="C46">
-        <v>-0.4399034310282546</v>
-      </c>
-      <c r="D46">
-        <v>2025</v>
-      </c>
       <c r="E46">
-        <v>2.563033601911258</v>
+        <v>-1.561801765212567</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45436</v>
+        <v>45345</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-0.5865622195987186</v>
+        <v>-2.798317913999848</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>2.431929210693595</v>
+        <v>2.363509743917169</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45534</v>
+        <v>45436</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-0.8205034771073372</v>
+        <v>-2.107534670984712</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>1.969879323458756</v>
+        <v>2.747596279389564</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45618</v>
+        <v>45534</v>
       </c>
       <c r="B49">
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-0.8205034771073372</v>
+        <v>-2.567041707495976</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>1.5902148106679</v>
+        <v>1.835066812373642</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45713</v>
+        <v>45618</v>
       </c>
       <c r="B50">
+        <v>2024</v>
+      </c>
+      <c r="C50">
+        <v>-1.735114423676209</v>
+      </c>
+      <c r="D50">
         <v>2025</v>
       </c>
-      <c r="C50">
-        <v>1.06642809951869</v>
-      </c>
-      <c r="D50">
-        <v>2026</v>
-      </c>
       <c r="E50">
-        <v>2.36642828939615</v>
+        <v>2.409056355286521</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45800</v>
+        <v>45713</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.7174582534189566</v>
+        <v>2.450219408996213</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>2.061048937680932</v>
+        <v>2.677741483899121</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45891</v>
+        <v>45800</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.5750555200350504</v>
+        <v>1.552685227480533</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>1.743520202089877</v>
+        <v>2.496145622272206</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B53">
+        <v>2025</v>
+      </c>
+      <c r="C53">
+        <v>2.64031107104763</v>
+      </c>
+      <c r="D53">
+        <v>2026</v>
+      </c>
+      <c r="E53">
+        <v>3.123685491361705</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AR2_50_9_full.xlsx
@@ -929,13 +929,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-7.578477024949737</v>
+        <v>-10.53914413005148</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-5.743787238149123</v>
+        <v>-22.18666085538521</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -952,7 +952,7 @@
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>0.00562230452727519</v>
+        <v>-5.080986607234472</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -963,13 +963,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>0.4989366167094333</v>
+        <v>1.081256150698318</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>2.690694906265412</v>
+        <v>2.50672470508142</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -980,13 +980,13 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>4.507091823899212</v>
+        <v>3.422728847591983</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>5.429743376942153</v>
+        <v>4.159769430572657</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -997,13 +997,13 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>4.379227219808146</v>
+        <v>4.452339552778994</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>4.954652839642848</v>
+        <v>5.224501267457948</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1020,7 +1020,7 @@
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>3.9116372951149</v>
+        <v>4.326582230384801</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1031,13 +1031,13 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>7.041577295022128</v>
+        <v>8.52901436454767</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>3.388682041315016</v>
+        <v>4.183355795188803</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1048,13 +1048,13 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>8.053468068361846</v>
+        <v>7.61654136842036</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>3.974997080343634</v>
+        <v>3.875399348087094</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1065,13 +1065,13 @@
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>7.397318165265498</v>
+        <v>7.551356180977131</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>3.367096865515662</v>
+        <v>3.739387868238064</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1088,7 +1088,7 @@
         <v>2023</v>
       </c>
       <c r="E42">
-        <v>2.586378346096296</v>
+        <v>5.010954047212612</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1099,13 +1099,13 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>0.9995490351194292</v>
+        <v>2.839863250679464</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>2.834404338648921</v>
+        <v>3.553794453012871</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1116,13 +1116,13 @@
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>0.2714278794373248</v>
+        <v>0.7753820538246803</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>2.460471645027118</v>
+        <v>2.989319424861114</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1133,13 +1133,13 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-0.3046246622258053</v>
+        <v>-0.2318687624372262</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>1.976476469605681</v>
+        <v>2.206586811141542</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1156,7 +1156,7 @@
         <v>2024</v>
       </c>
       <c r="E46">
-        <v>-1.561801765212567</v>
+        <v>0.5676719215572001</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1167,13 +1167,13 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-2.798317913999848</v>
+        <v>-2.046429762218094</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>2.363509743917169</v>
+        <v>2.615718196935091</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1184,13 +1184,13 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-2.107534670984712</v>
+        <v>-2.17916173717011</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>2.747596279389564</v>
+        <v>2.618356875591199</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1201,13 +1201,13 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-2.567041707495976</v>
+        <v>-2.319665112315228</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>1.835066812373642</v>
+        <v>2.445734351032636</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1224,7 +1224,7 @@
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>2.409056355286521</v>
+        <v>2.806286889124965</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1235,13 +1235,13 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>2.450219408996213</v>
+        <v>2.991102431236192</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>2.677741483899121</v>
+        <v>2.871978646219042</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1252,13 +1252,13 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>1.552685227480533</v>
+        <v>1.847721869714491</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>2.496145622272206</v>
+        <v>2.81747164028272</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1269,13 +1269,13 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>2.64031107104763</v>
+        <v>2.704857934901916</v>
       </c>
       <c r="D53">
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>3.123685491361705</v>
+        <v>3.343276078818591</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AR2_50_9_full.xlsx
@@ -422,9 +422,6 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>7.226520411029069</v>
-      </c>
       <c r="D2">
         <v>2008</v>
       </c>
@@ -447,9 +444,6 @@
       <c r="B4">
         <v>2008</v>
       </c>
-      <c r="C4">
-        <v>4.268860212333636</v>
-      </c>
       <c r="D4">
         <v>2009</v>
       </c>
@@ -473,7 +467,7 @@
         <v>2009</v>
       </c>
       <c r="C6">
-        <v>-7.266312015249776</v>
+        <v>-7.266312015249799</v>
       </c>
       <c r="D6">
         <v>2010</v>
@@ -487,13 +481,13 @@
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>3.184002331674129</v>
+        <v>3.184002331674152</v>
       </c>
       <c r="D7">
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>6.704254199558113</v>
+        <v>6.704254199558157</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -510,7 +504,7 @@
         <v>2011</v>
       </c>
       <c r="E8">
-        <v>12.21658306395068</v>
+        <v>12.2165830639507</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -521,13 +515,13 @@
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>8.626810748872327</v>
+        <v>8.626810748872305</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>4.739201070534826</v>
+        <v>4.739201070534849</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -538,13 +532,13 @@
         <v>2011</v>
       </c>
       <c r="C10">
-        <v>9.469137444079934</v>
+        <v>9.469137444079955</v>
       </c>
       <c r="D10">
         <v>2012</v>
       </c>
       <c r="E10">
-        <v>8.079264579851909</v>
+        <v>8.07926457985193</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -555,13 +549,13 @@
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>3.449685446853534</v>
+        <v>3.449685446853556</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>3.26507595662513</v>
+        <v>3.265075956625108</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -572,7 +566,7 @@
         <v>2012</v>
       </c>
       <c r="C12">
-        <v>3.358206407534947</v>
+        <v>3.358206407534969</v>
       </c>
       <c r="D12">
         <v>2013</v>
@@ -589,7 +583,7 @@
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>-1.480934717826909</v>
+        <v>-1.480934717826898</v>
       </c>
       <c r="D13">
         <v>2014</v>
@@ -623,13 +617,13 @@
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>5.427992542801308</v>
+        <v>5.427992542801285</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>4.945882057432871</v>
+        <v>4.945882057432893</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -640,7 +634,7 @@
         <v>2014</v>
       </c>
       <c r="C16">
-        <v>3.901355411819707</v>
+        <v>3.901355411819685</v>
       </c>
       <c r="D16">
         <v>2015</v>
@@ -657,7 +651,7 @@
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>4.970284184513551</v>
+        <v>4.970284184513529</v>
       </c>
       <c r="D17">
         <v>2016</v>
@@ -680,7 +674,7 @@
         <v>2016</v>
       </c>
       <c r="E18">
-        <v>4.089819750351786</v>
+        <v>4.089819750351809</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -691,7 +685,7 @@
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>4.039484738713828</v>
+        <v>4.039484738713806</v>
       </c>
       <c r="D19">
         <v>2017</v>
@@ -714,7 +708,7 @@
         <v>2017</v>
       </c>
       <c r="E20">
-        <v>2.313009565865753</v>
+        <v>2.313009565865709</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -742,7 +736,7 @@
         <v>2017</v>
       </c>
       <c r="C22">
-        <v>5.246209615995667</v>
+        <v>5.246209615995689</v>
       </c>
       <c r="D22">
         <v>2018</v>
@@ -759,13 +753,13 @@
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>6.011890504679696</v>
+        <v>6.011890504679673</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>4.234360353587641</v>
+        <v>4.234360353587618</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -776,7 +770,7 @@
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>3.625873842174787</v>
+        <v>3.625873842174765</v>
       </c>
       <c r="D24">
         <v>2019</v>
@@ -793,13 +787,13 @@
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>4.899902276557011</v>
+        <v>4.899902276557033</v>
       </c>
       <c r="D25">
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>3.75342745845737</v>
+        <v>3.753427458457348</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -810,13 +804,13 @@
         <v>2018</v>
       </c>
       <c r="C26">
-        <v>4.86255966374296</v>
+        <v>4.862559663742938</v>
       </c>
       <c r="D26">
         <v>2019</v>
       </c>
       <c r="E26">
-        <v>4.112897401876747</v>
+        <v>4.112897401876769</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -833,7 +827,7 @@
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>3.270208315717005</v>
+        <v>3.270208315717027</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -844,13 +838,13 @@
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>3.500574054404404</v>
+        <v>3.500574054404426</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>3.21661481720994</v>
+        <v>3.216614817209962</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -861,13 +855,13 @@
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>2.983312281417039</v>
+        <v>2.983312281417061</v>
       </c>
       <c r="D29">
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>2.428295356218069</v>
+        <v>2.428295356218024</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -878,13 +872,13 @@
         <v>2019</v>
       </c>
       <c r="C30">
-        <v>2.764740011159428</v>
+        <v>2.76474001115945</v>
       </c>
       <c r="D30">
         <v>2020</v>
       </c>
       <c r="E30">
-        <v>1.643374185611401</v>
+        <v>1.643374185611379</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -895,7 +889,7 @@
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>2.096953540210977</v>
+        <v>2.096953540211</v>
       </c>
       <c r="D31">
         <v>2021</v>
@@ -912,7 +906,7 @@
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-0.9913189363815245</v>
+        <v>-0.9913189363815467</v>
       </c>
       <c r="D32">
         <v>2021</v>
@@ -935,7 +929,7 @@
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-22.18666085538521</v>
+        <v>-22.18666085538523</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -946,13 +940,13 @@
         <v>2020</v>
       </c>
       <c r="C34">
-        <v>-7.260793671746435</v>
+        <v>-7.260793671746447</v>
       </c>
       <c r="D34">
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>-5.080986607234472</v>
+        <v>-5.080986607234461</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -963,13 +957,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>1.081256150698318</v>
+        <v>1.081256150698295</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>2.50672470508142</v>
+        <v>2.506724705081398</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -980,13 +974,13 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>3.422728847591983</v>
+        <v>3.42272884759196</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>4.159769430572657</v>
+        <v>4.159769430572635</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -997,7 +991,7 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>4.452339552778994</v>
+        <v>4.45233955277895</v>
       </c>
       <c r="D37">
         <v>2022</v>
@@ -1014,7 +1008,7 @@
         <v>2021</v>
       </c>
       <c r="C38">
-        <v>4.097586525396268</v>
+        <v>4.097586525396246</v>
       </c>
       <c r="D38">
         <v>2022</v>
@@ -1031,13 +1025,13 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>8.52901436454767</v>
+        <v>8.529014364547649</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>4.183355795188803</v>
+        <v>4.183355795188826</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1048,7 +1042,7 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>7.61654136842036</v>
+        <v>7.616541368420382</v>
       </c>
       <c r="D40">
         <v>2023</v>
@@ -1065,13 +1059,13 @@
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>7.551356180977131</v>
+        <v>7.551356180977153</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>3.739387868238064</v>
+        <v>3.739387868238042</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1082,7 +1076,7 @@
         <v>2022</v>
       </c>
       <c r="C42">
-        <v>7.824284864703746</v>
+        <v>7.824284864703768</v>
       </c>
       <c r="D42">
         <v>2023</v>
@@ -1105,7 +1099,7 @@
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>3.553794453012871</v>
+        <v>3.553794453012893</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1133,13 +1127,13 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-0.2318687624372262</v>
+        <v>-0.2318687624372151</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>2.206586811141542</v>
+        <v>2.20658681114152</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1150,7 +1144,7 @@
         <v>2023</v>
       </c>
       <c r="C46">
-        <v>-1.24502235313334</v>
+        <v>-1.245022353133318</v>
       </c>
       <c r="D46">
         <v>2024</v>
@@ -1167,7 +1161,7 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-2.046429762218094</v>
+        <v>-2.046429762218083</v>
       </c>
       <c r="D47">
         <v>2025</v>
@@ -1184,13 +1178,13 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-2.17916173717011</v>
+        <v>-2.179161737170099</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>2.618356875591199</v>
+        <v>2.618356875591177</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1201,7 +1195,7 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-2.319665112315228</v>
+        <v>-2.319665112315217</v>
       </c>
       <c r="D49">
         <v>2025</v>
@@ -1224,7 +1218,7 @@
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>2.806286889124965</v>
+        <v>2.806286889124987</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1258,7 +1252,7 @@
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>2.81747164028272</v>
+        <v>2.817471640282698</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1269,7 +1263,7 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>2.704857934901916</v>
+        <v>2.704857934901939</v>
       </c>
       <c r="D53">
         <v>2026</v>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_IMPORT_yoy_AR2_50_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1272,6 +1272,23 @@
         <v>3.343276078818591</v>
       </c>
     </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B54">
+        <v>2025</v>
+      </c>
+      <c r="C54">
+        <v>2.560577522109297</v>
+      </c>
+      <c r="D54">
+        <v>2026</v>
+      </c>
+      <c r="E54">
+        <v>2.991302072731838</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
